--- a/data/evaluation/evaluation_North_Summer_Mangoes.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Mangoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>561.4588176406926</v>
+        <v>561.017150974026</v>
       </c>
       <c r="C3" t="n">
-        <v>467088.4674343783</v>
+        <v>467051.2202121561</v>
       </c>
       <c r="D3" t="n">
-        <v>683.438707884166</v>
+        <v>683.4114574779649</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.276084870131442</v>
+        <v>-0.2759831107859518</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2518332940197</v>
+        <v>556.8148160761991</v>
       </c>
       <c r="C4" t="n">
-        <v>451348.9216960026</v>
+        <v>444657.1035947705</v>
       </c>
       <c r="D4" t="n">
-        <v>671.82506777881</v>
+        <v>666.8261419551354</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2330844589035521</v>
+        <v>-0.2148024236403849</v>
       </c>
     </row>
     <row r="5">
